--- a/SensitivityAnalisys/Dimensions_EP3.xlsx
+++ b/SensitivityAnalisys/Dimensions_EP3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6AB100-7F7E-4068-8B4F-05FEE7B11168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3869314C-531E-44BE-8EE3-B927B16C7C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63405" yWindow="7215" windowWidth="25305" windowHeight="9435" tabRatio="874" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="46296" windowHeight="25416" tabRatio="874" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportingNode" sheetId="1" r:id="rId1"/>
@@ -57,8 +57,8 @@
     <definedName name="ReportingNode_SystemName">ReportingNode!$A$2:$A$4</definedName>
     <definedName name="RiskDriver_DisplayName">RiskDriver!$B$2:$B$2</definedName>
     <definedName name="RiskDriver_SystemName">RiskDriver!$A$2:$A$2</definedName>
-    <definedName name="Scenario_DisplayName">Scenario!$B$2:$B$4</definedName>
-    <definedName name="Scenario_SystemName">Scenario!$A$2:$A$4</definedName>
+    <definedName name="Scenario_DisplayName">Scenario!$B$2:$B$6</definedName>
+    <definedName name="Scenario_SystemName">Scenario!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr calcId="191029" forceFullCalc="1"/>
   <extLst>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="333">
   <si>
     <t>SystemName</t>
   </si>
@@ -1043,12 +1043,6 @@
     <t>OCI3</t>
   </si>
   <si>
-    <t>YCUP1.0pct</t>
-  </si>
-  <si>
-    <t>Yield Curve Up 1.0pct</t>
-  </si>
-  <si>
     <t>MTUP10pct</t>
   </si>
   <si>
@@ -1065,6 +1059,24 @@
   </si>
   <si>
     <t>IIU</t>
+  </si>
+  <si>
+    <t>NFIIUUP10pct</t>
+  </si>
+  <si>
+    <t>Non-Financial Inflation Up 10pct</t>
+  </si>
+  <si>
+    <t>Financial Inflation Up 10pct</t>
+  </si>
+  <si>
+    <t>FIIUUP10pct</t>
+  </si>
+  <si>
+    <t>Yield Curve Up 10pct</t>
+  </si>
+  <si>
+    <t>YCUP10pct</t>
   </si>
 </sst>
 </file>
@@ -2564,8 +2576,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_Scenario" displayName="Table_Scenario" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_Scenario" displayName="Table_Scenario" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SystemName" dataDxfId="58"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="DisplayName" dataDxfId="57"/>
@@ -4269,7 +4281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDED30D7-708A-49B4-A085-2E822AA47516}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -4427,10 +4439,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -5828,10 +5840,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6085F575-8EC4-4744-BA59-22D8D4AF945F}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5850,26 +5862,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B4" t="s">
-        <v>325</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/SensitivityAnalisys/Dimensions_EP3.xlsx
+++ b/SensitivityAnalisys/Dimensions_EP3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3869314C-531E-44BE-8EE3-B927B16C7C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E089B7E-B100-425D-A02F-4B09125DAF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="46296" windowHeight="25416" tabRatio="874" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80715" yWindow="1440" windowWidth="24285" windowHeight="17445" tabRatio="874" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportingNode" sheetId="1" r:id="rId1"/>
@@ -1073,10 +1073,10 @@
     <t>FIIUUP10pct</t>
   </si>
   <si>
-    <t>Yield Curve Up 10pct</t>
-  </si>
-  <si>
-    <t>YCUP10pct</t>
+    <t>YCIIUP</t>
+  </si>
+  <si>
+    <t>Yield Curve Up</t>
   </si>
 </sst>
 </file>
@@ -5843,7 +5843,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5862,10 +5862,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" t="s">
         <v>332</v>
-      </c>
-      <c r="B2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
